--- a/versionOverview.xlsx
+++ b/versionOverview.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\albrecht-net.ch\webVirtualHost\extranet\dev\GitHub\accounting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\mainnas\webVirtualHost\extranet\dev\GitHub\accounting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E7A889-4759-4332-9B09-A2168037DBBC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E4209D-75D7-4DF8-88B9-C1E9EE29AD91}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39160" yWindow="760" windowWidth="28800" windowHeight="15460" xr2:uid="{4C7BC04F-AF9E-4AF1-A85F-469E0888D37E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
   <si>
     <t>Applikation</t>
   </si>
@@ -105,9 +105,6 @@
     <t>v2.11.1-beta</t>
   </si>
   <si>
-    <t>v2.19.0-beta</t>
-  </si>
-  <si>
     <t>v4.1.3</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
   </si>
   <si>
     <t>v1.0.0</t>
-  </si>
-  <si>
-    <t>v1.10.18</t>
   </si>
 </sst>
 </file>
@@ -301,15 +295,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -331,6 +318,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -669,10 +664,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -680,408 +675,408 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="19"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="16"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15" t="s">
+      <c r="G5" s="12"/>
+      <c r="H5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="20" t="s">
+      <c r="I5" s="12"/>
+      <c r="J5" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="12">
-        <v>43553</v>
+      <c r="G6" s="7"/>
+      <c r="H6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="9">
+        <v>43565</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="12">
+      <c r="I7" s="7"/>
+      <c r="J7" s="9">
         <v>43545</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="12">
+      <c r="I8" s="7"/>
+      <c r="J8" s="9">
         <v>43522</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="12">
+      <c r="I9" s="7"/>
+      <c r="J9" s="9">
         <v>43521</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="12">
+      <c r="I10" s="7"/>
+      <c r="J10" s="9">
         <v>43521</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="12">
+      <c r="B11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="9">
         <v>43489</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="12">
+      <c r="B12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="9">
         <v>43482</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="12">
+      <c r="B13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="9">
         <v>43470</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="12">
+      <c r="B14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="9">
         <v>43469</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="12">
+      <c r="B15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="9">
         <v>43422</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="12">
+      <c r="B16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="9">
         <v>43411</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="12">
+      <c r="B17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="9">
         <v>43411</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="12">
+      <c r="B18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="9">
         <v>43406</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="12">
+      <c r="B19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="9">
         <v>43404</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="13">
+      <c r="B20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="10">
         <v>43401</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/versionOverview.xlsx
+++ b/versionOverview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\mainnas\webVirtualHost\extranet\dev\GitHub\accounting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E4209D-75D7-4DF8-88B9-C1E9EE29AD91}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0794C7-DC1C-49CA-9BBE-AF9139A5CD8A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39160" yWindow="760" windowWidth="28800" windowHeight="15460" xr2:uid="{4C7BC04F-AF9E-4AF1-A85F-469E0888D37E}"/>
+    <workbookView xWindow="41790" yWindow="3020" windowWidth="28620" windowHeight="15460" xr2:uid="{4C7BC04F-AF9E-4AF1-A85F-469E0888D37E}"/>
   </bookViews>
   <sheets>
     <sheet name="Version overview" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="31">
   <si>
     <t>Applikation</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Freigabe Datum</t>
   </si>
   <si>
-    <t>Versionsübersicht</t>
-  </si>
-  <si>
     <t>Die folgende Tabelle zeigt die Versionsübersicht. Gelb markierte Felder weisen auf Anpassungen hin.</t>
   </si>
   <si>
@@ -112,6 +109,21 @@
   </si>
   <si>
     <t>v1.0.0</t>
+  </si>
+  <si>
+    <t>v2.19.0-beta</t>
+  </si>
+  <si>
+    <t>v1.10.18</t>
+  </si>
+  <si>
+    <t>v1.1.0</t>
+  </si>
+  <si>
+    <t>Versionsübersicht Accounting</t>
+  </si>
+  <si>
+    <t>v2.23.2-beta</t>
   </si>
 </sst>
 </file>
@@ -295,7 +307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -318,6 +330,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -325,7 +339,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -646,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956BD7F1-73B9-4FB3-85F5-D7C19A133EFA}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -664,14 +677,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="20"/>
+      <c r="A1" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -687,12 +702,12 @@
       <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
         <v>5</v>
@@ -731,166 +746,178 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
-        <v>23</v>
+      <c r="A6" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="18" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="9">
-        <v>43565</v>
+        <v>43583</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>23</v>
+      <c r="A7" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="13"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="13" t="s">
-        <v>26</v>
+      <c r="H7" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="9">
-        <v>43545</v>
+        <v>43565</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="13"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="7"/>
       <c r="H8" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="9">
-        <v>43522</v>
+        <v>43553</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="7"/>
       <c r="F9" s="13"/>
       <c r="G9" s="7"/>
       <c r="H9" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="9">
-        <v>43521</v>
+        <v>43545</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="7"/>
       <c r="F10" s="13"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="3" t="s">
-        <v>26</v>
+      <c r="H10" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="9">
-        <v>43521</v>
+        <v>43522</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="7"/>
       <c r="F11" s="13"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="13"/>
+      <c r="H11" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="I11" s="7"/>
       <c r="J11" s="9">
-        <v>43489</v>
+        <v>43521</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="7"/>
       <c r="F12" s="13"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="13"/>
+      <c r="H12" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I12" s="7"/>
       <c r="J12" s="9">
-        <v>43482</v>
+        <v>43521</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="7"/>
@@ -899,18 +926,18 @@
       <c r="H13" s="13"/>
       <c r="I13" s="7"/>
       <c r="J13" s="9">
-        <v>43470</v>
+        <v>43489</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="7"/>
@@ -919,18 +946,18 @@
       <c r="H14" s="13"/>
       <c r="I14" s="7"/>
       <c r="J14" s="9">
-        <v>43469</v>
+        <v>43482</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="7"/>
@@ -939,18 +966,18 @@
       <c r="H15" s="13"/>
       <c r="I15" s="7"/>
       <c r="J15" s="9">
-        <v>43422</v>
+        <v>43470</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="7"/>
@@ -959,18 +986,18 @@
       <c r="H16" s="13"/>
       <c r="I16" s="7"/>
       <c r="J16" s="9">
-        <v>43411</v>
+        <v>43469</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="7"/>
@@ -979,18 +1006,18 @@
       <c r="H17" s="13"/>
       <c r="I17" s="7"/>
       <c r="J17" s="9">
-        <v>43411</v>
+        <v>43422</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -999,18 +1026,18 @@
       <c r="H18" s="13"/>
       <c r="I18" s="7"/>
       <c r="J18" s="9">
-        <v>43406</v>
+        <v>43411</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="7"/>
@@ -1019,52 +1046,68 @@
       <c r="H19" s="13"/>
       <c r="I19" s="7"/>
       <c r="J19" s="9">
+        <v>43411</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="9">
+        <v>43406</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="9">
         <v>43404</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="10">
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="10">
         <v>43401</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="15"/>
@@ -1078,10 +1121,34 @@
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
     </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/versionOverview.xlsx
+++ b/versionOverview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\mainnas\webVirtualHost\extranet\dev\GitHub\accounting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0794C7-DC1C-49CA-9BBE-AF9139A5CD8A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE78924-FE35-4EBA-AD71-DFD2661B5AE6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41790" yWindow="3020" windowWidth="28620" windowHeight="15460" xr2:uid="{4C7BC04F-AF9E-4AF1-A85F-469E0888D37E}"/>
+    <workbookView xWindow="39880" yWindow="1480" windowWidth="28800" windowHeight="15460" xr2:uid="{4C7BC04F-AF9E-4AF1-A85F-469E0888D37E}"/>
   </bookViews>
   <sheets>
     <sheet name="Version overview" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="32">
   <si>
     <t>Applikation</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>v2.23.2-beta</t>
+  </si>
+  <si>
+    <t>v2.25.0-beta</t>
   </si>
 </sst>
 </file>
@@ -659,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956BD7F1-73B9-4FB3-85F5-D7C19A133EFA}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -747,7 +750,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>23</v>
@@ -768,12 +771,12 @@
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="9">
-        <v>43583</v>
+        <v>43593</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="18" t="s">
-        <v>26</v>
+      <c r="A7" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>23</v>
@@ -785,20 +788,20 @@
         <v>27</v>
       </c>
       <c r="E7" s="7"/>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="13" t="s">
         <v>28</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="9">
-        <v>43565</v>
+        <v>43583</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -807,23 +810,25 @@
       <c r="C8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="18"/>
+      <c r="F8" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="13" t="s">
-        <v>25</v>
+      <c r="H8" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="9">
-        <v>43553</v>
+        <v>43565</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>23</v>
@@ -831,21 +836,23 @@
       <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="13"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="7"/>
       <c r="H9" s="13" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="9">
-        <v>43545</v>
+        <v>43553</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>23</v>
@@ -862,12 +869,12 @@
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="9">
-        <v>43522</v>
+        <v>43545</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>23</v>
@@ -884,12 +891,12 @@
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="9">
-        <v>43521</v>
+        <v>43522</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>23</v>
@@ -901,7 +908,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="13"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="13" t="s">
         <v>25</v>
       </c>
       <c r="I12" s="7"/>
@@ -911,7 +918,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>23</v>
@@ -923,15 +930,17 @@
       <c r="E13" s="7"/>
       <c r="F13" s="13"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="13"/>
+      <c r="H13" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I13" s="7"/>
       <c r="J13" s="9">
-        <v>43489</v>
+        <v>43521</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>23</v>
@@ -946,12 +955,12 @@
       <c r="H14" s="13"/>
       <c r="I14" s="7"/>
       <c r="J14" s="9">
-        <v>43482</v>
+        <v>43489</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>23</v>
@@ -966,12 +975,12 @@
       <c r="H15" s="13"/>
       <c r="I15" s="7"/>
       <c r="J15" s="9">
-        <v>43470</v>
+        <v>43482</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>23</v>
@@ -986,12 +995,12 @@
       <c r="H16" s="13"/>
       <c r="I16" s="7"/>
       <c r="J16" s="9">
-        <v>43469</v>
+        <v>43470</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>23</v>
@@ -1006,12 +1015,12 @@
       <c r="H17" s="13"/>
       <c r="I17" s="7"/>
       <c r="J17" s="9">
-        <v>43422</v>
+        <v>43469</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>23</v>
@@ -1026,12 +1035,12 @@
       <c r="H18" s="13"/>
       <c r="I18" s="7"/>
       <c r="J18" s="9">
-        <v>43411</v>
+        <v>43422</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>23</v>
@@ -1051,7 +1060,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>23</v>
@@ -1066,12 +1075,12 @@
       <c r="H20" s="13"/>
       <c r="I20" s="7"/>
       <c r="J20" s="9">
-        <v>43406</v>
+        <v>43411</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>23</v>
@@ -1086,40 +1095,48 @@
       <c r="H21" s="13"/>
       <c r="I21" s="7"/>
       <c r="J21" s="9">
+        <v>43406</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="9">
         <v>43404</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="5" t="s">
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="10">
+      <c r="B23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="10">
         <v>43401</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="15"/>
@@ -1144,6 +1161,18 @@
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
       <c r="J25" s="15"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/versionOverview.xlsx
+++ b/versionOverview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\mainnas\webVirtualHost\extranet\dev\GitHub\accounting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE78924-FE35-4EBA-AD71-DFD2661B5AE6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85A4243-ECBC-4736-B816-7BD6F8A10BC6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39880" yWindow="1480" windowWidth="28800" windowHeight="15460" xr2:uid="{4C7BC04F-AF9E-4AF1-A85F-469E0888D37E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{4C7BC04F-AF9E-4AF1-A85F-469E0888D37E}"/>
   </bookViews>
   <sheets>
     <sheet name="Version overview" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="33">
   <si>
     <t>Applikation</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>v2.25.0-beta</t>
+  </si>
+  <si>
+    <t>v2.26.0-beta</t>
   </si>
 </sst>
 </file>
@@ -310,7 +313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -342,6 +345,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -662,7 +666,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956BD7F1-73B9-4FB3-85F5-D7C19A133EFA}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -750,7 +754,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>23</v>
@@ -771,12 +775,12 @@
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="9">
-        <v>43593</v>
+        <v>43606</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>23</v>
@@ -797,12 +801,12 @@
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="9">
-        <v>43583</v>
+        <v>43593</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
-        <v>26</v>
+      <c r="A8" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>23</v>
@@ -814,20 +818,20 @@
         <v>27</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="13" t="s">
         <v>28</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="9">
-        <v>43565</v>
+        <v>43583</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -836,23 +840,25 @@
       <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="18"/>
+      <c r="F9" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="13" t="s">
-        <v>25</v>
+      <c r="H9" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="9">
-        <v>43553</v>
+        <v>43565</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>23</v>
@@ -860,21 +866,23 @@
       <c r="C10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="13"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="7"/>
       <c r="H10" s="13" t="s">
         <v>25</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="9">
-        <v>43545</v>
+        <v>43553</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>23</v>
@@ -891,12 +899,12 @@
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="9">
-        <v>43522</v>
+        <v>43545</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>23</v>
@@ -913,12 +921,12 @@
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="9">
-        <v>43521</v>
+        <v>43522</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>23</v>
@@ -930,7 +938,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="13"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="13" t="s">
         <v>25</v>
       </c>
       <c r="I13" s="7"/>
@@ -940,7 +948,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>23</v>
@@ -952,15 +960,17 @@
       <c r="E14" s="7"/>
       <c r="F14" s="13"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="13"/>
+      <c r="H14" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I14" s="7"/>
       <c r="J14" s="9">
-        <v>43489</v>
+        <v>43521</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>23</v>
@@ -975,12 +985,12 @@
       <c r="H15" s="13"/>
       <c r="I15" s="7"/>
       <c r="J15" s="9">
-        <v>43482</v>
+        <v>43489</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>23</v>
@@ -995,12 +1005,12 @@
       <c r="H16" s="13"/>
       <c r="I16" s="7"/>
       <c r="J16" s="9">
-        <v>43470</v>
+        <v>43482</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>23</v>
@@ -1015,12 +1025,12 @@
       <c r="H17" s="13"/>
       <c r="I17" s="7"/>
       <c r="J17" s="9">
-        <v>43469</v>
+        <v>43470</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>23</v>
@@ -1035,12 +1045,12 @@
       <c r="H18" s="13"/>
       <c r="I18" s="7"/>
       <c r="J18" s="9">
-        <v>43422</v>
+        <v>43469</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>23</v>
@@ -1055,12 +1065,12 @@
       <c r="H19" s="13"/>
       <c r="I19" s="7"/>
       <c r="J19" s="9">
-        <v>43411</v>
+        <v>43422</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>23</v>
@@ -1080,7 +1090,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>23</v>
@@ -1095,12 +1105,12 @@
       <c r="H21" s="13"/>
       <c r="I21" s="7"/>
       <c r="J21" s="9">
-        <v>43406</v>
+        <v>43411</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>23</v>
@@ -1115,40 +1125,48 @@
       <c r="H22" s="13"/>
       <c r="I22" s="7"/>
       <c r="J22" s="9">
+        <v>43406</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="9">
         <v>43404</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="5" t="s">
+    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="10">
+      <c r="B24" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="10">
         <v>43401</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="15"/>
@@ -1173,6 +1191,18 @@
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
       <c r="J26" s="15"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/versionOverview.xlsx
+++ b/versionOverview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\mainnas\webVirtualHost\extranet\dev\GitHub\accounting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85A4243-ECBC-4736-B816-7BD6F8A10BC6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71835A91-BCE3-43AE-8A20-3D176E9BAFAC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{4C7BC04F-AF9E-4AF1-A85F-469E0888D37E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="34">
   <si>
     <t>Applikation</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>v2.26.0-beta</t>
+  </si>
+  <si>
+    <t>v2.28.0-beta</t>
   </si>
 </sst>
 </file>
@@ -338,6 +341,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -345,7 +349,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -666,7 +669,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956BD7F1-73B9-4FB3-85F5-D7C19A133EFA}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -684,12 +687,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -709,12 +712,12 @@
       <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
         <v>5</v>
@@ -754,7 +757,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>23</v>
@@ -775,12 +778,12 @@
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="9">
-        <v>43606</v>
+        <v>43613</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>23</v>
@@ -801,12 +804,12 @@
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="9">
-        <v>43593</v>
+        <v>43606</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>23</v>
@@ -827,12 +830,12 @@
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="9">
-        <v>43583</v>
+        <v>43593</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
-        <v>26</v>
+      <c r="A9" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>23</v>
@@ -844,20 +847,20 @@
         <v>27</v>
       </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="13" t="s">
         <v>28</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="9">
-        <v>43565</v>
+        <v>43583</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -866,23 +869,25 @@
       <c r="C10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="18"/>
+      <c r="F10" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="G10" s="7"/>
-      <c r="H10" s="13" t="s">
-        <v>25</v>
+      <c r="H10" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="9">
-        <v>43553</v>
+        <v>43565</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>23</v>
@@ -890,21 +895,23 @@
       <c r="C11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="E11" s="7"/>
-      <c r="F11" s="13"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="7"/>
       <c r="H11" s="13" t="s">
         <v>25</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="9">
-        <v>43545</v>
+        <v>43553</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>23</v>
@@ -921,12 +928,12 @@
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="9">
-        <v>43522</v>
+        <v>43545</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>23</v>
@@ -943,12 +950,12 @@
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="9">
-        <v>43521</v>
+        <v>43522</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>23</v>
@@ -960,7 +967,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="13"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="13" t="s">
         <v>25</v>
       </c>
       <c r="I14" s="7"/>
@@ -970,7 +977,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>23</v>
@@ -982,15 +989,17 @@
       <c r="E15" s="7"/>
       <c r="F15" s="13"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="13"/>
+      <c r="H15" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I15" s="7"/>
       <c r="J15" s="9">
-        <v>43489</v>
+        <v>43521</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>23</v>
@@ -1005,12 +1014,12 @@
       <c r="H16" s="13"/>
       <c r="I16" s="7"/>
       <c r="J16" s="9">
-        <v>43482</v>
+        <v>43489</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>23</v>
@@ -1025,12 +1034,12 @@
       <c r="H17" s="13"/>
       <c r="I17" s="7"/>
       <c r="J17" s="9">
-        <v>43470</v>
+        <v>43482</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>23</v>
@@ -1045,12 +1054,12 @@
       <c r="H18" s="13"/>
       <c r="I18" s="7"/>
       <c r="J18" s="9">
-        <v>43469</v>
+        <v>43470</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>23</v>
@@ -1065,12 +1074,12 @@
       <c r="H19" s="13"/>
       <c r="I19" s="7"/>
       <c r="J19" s="9">
-        <v>43422</v>
+        <v>43469</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>23</v>
@@ -1085,12 +1094,12 @@
       <c r="H20" s="13"/>
       <c r="I20" s="7"/>
       <c r="J20" s="9">
-        <v>43411</v>
+        <v>43422</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>23</v>
@@ -1110,7 +1119,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>23</v>
@@ -1125,12 +1134,12 @@
       <c r="H22" s="13"/>
       <c r="I22" s="7"/>
       <c r="J22" s="9">
-        <v>43406</v>
+        <v>43411</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>23</v>
@@ -1145,40 +1154,48 @@
       <c r="H23" s="13"/>
       <c r="I23" s="7"/>
       <c r="J23" s="9">
+        <v>43406</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="9">
         <v>43404</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="5" t="s">
+    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="10">
+      <c r="B25" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="10">
         <v>43401</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="15"/>
@@ -1203,6 +1220,18 @@
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/versionOverview.xlsx
+++ b/versionOverview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\mainnas\webVirtualHost\extranet\dev\GitHub\accounting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71835A91-BCE3-43AE-8A20-3D176E9BAFAC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F279FA-6739-4038-A5CD-755B5F04ADF3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{4C7BC04F-AF9E-4AF1-A85F-469E0888D37E}"/>
+    <workbookView xWindow="10400" yWindow="3580" windowWidth="28800" windowHeight="15460" xr2:uid="{4C7BC04F-AF9E-4AF1-A85F-469E0888D37E}"/>
   </bookViews>
   <sheets>
     <sheet name="Version overview" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="36">
   <si>
     <t>Applikation</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>v2.28.0-beta</t>
+  </si>
+  <si>
+    <t>v1.2.0</t>
+  </si>
+  <si>
+    <t>v1.6.0</t>
   </si>
 </sst>
 </file>
@@ -669,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956BD7F1-73B9-4FB3-85F5-D7C19A133EFA}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -756,7 +762,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="18" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -769,21 +775,21 @@
         <v>27</v>
       </c>
       <c r="E6" s="7"/>
-      <c r="F6" s="18" t="s">
-        <v>25</v>
+      <c r="F6" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="13" t="s">
-        <v>28</v>
+      <c r="H6" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="9">
-        <v>43613</v>
+        <v>43627</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>23</v>
@@ -804,12 +810,12 @@
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="9">
-        <v>43606</v>
+        <v>43613</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>23</v>
@@ -830,12 +836,12 @@
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="9">
-        <v>43593</v>
+        <v>43606</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>23</v>
@@ -856,12 +862,12 @@
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="9">
-        <v>43583</v>
+        <v>43593</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="18" t="s">
-        <v>26</v>
+      <c r="A10" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>23</v>
@@ -873,20 +879,20 @@
         <v>27</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="13" t="s">
         <v>28</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="9">
-        <v>43565</v>
+        <v>43583</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -895,23 +901,25 @@
       <c r="C11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="7"/>
-      <c r="F11" s="18"/>
+      <c r="F11" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="13" t="s">
-        <v>25</v>
+      <c r="H11" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="9">
-        <v>43553</v>
+        <v>43565</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>23</v>
@@ -919,21 +927,23 @@
       <c r="C12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="13"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="7"/>
       <c r="H12" s="13" t="s">
         <v>25</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="9">
-        <v>43545</v>
+        <v>43553</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>23</v>
@@ -950,12 +960,12 @@
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="9">
-        <v>43522</v>
+        <v>43545</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>23</v>
@@ -972,12 +982,12 @@
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="9">
-        <v>43521</v>
+        <v>43522</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>23</v>
@@ -989,7 +999,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="13"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="13" t="s">
         <v>25</v>
       </c>
       <c r="I15" s="7"/>
@@ -999,7 +1009,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>23</v>
@@ -1011,15 +1021,17 @@
       <c r="E16" s="7"/>
       <c r="F16" s="13"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="13"/>
+      <c r="H16" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I16" s="7"/>
       <c r="J16" s="9">
-        <v>43489</v>
+        <v>43521</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>23</v>
@@ -1034,12 +1046,12 @@
       <c r="H17" s="13"/>
       <c r="I17" s="7"/>
       <c r="J17" s="9">
-        <v>43482</v>
+        <v>43489</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>23</v>
@@ -1054,12 +1066,12 @@
       <c r="H18" s="13"/>
       <c r="I18" s="7"/>
       <c r="J18" s="9">
-        <v>43470</v>
+        <v>43482</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>23</v>
@@ -1074,12 +1086,12 @@
       <c r="H19" s="13"/>
       <c r="I19" s="7"/>
       <c r="J19" s="9">
-        <v>43469</v>
+        <v>43470</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>23</v>
@@ -1094,12 +1106,12 @@
       <c r="H20" s="13"/>
       <c r="I20" s="7"/>
       <c r="J20" s="9">
-        <v>43422</v>
+        <v>43469</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>23</v>
@@ -1114,12 +1126,12 @@
       <c r="H21" s="13"/>
       <c r="I21" s="7"/>
       <c r="J21" s="9">
-        <v>43411</v>
+        <v>43422</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>23</v>
@@ -1139,7 +1151,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>23</v>
@@ -1154,12 +1166,12 @@
       <c r="H23" s="13"/>
       <c r="I23" s="7"/>
       <c r="J23" s="9">
-        <v>43406</v>
+        <v>43411</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>23</v>
@@ -1174,40 +1186,48 @@
       <c r="H24" s="13"/>
       <c r="I24" s="7"/>
       <c r="J24" s="9">
+        <v>43406</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="9">
         <v>43404</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="5" t="s">
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="10">
+      <c r="B26" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="10">
         <v>43401</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="15"/>
@@ -1232,6 +1252,18 @@
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
       <c r="J28" s="15"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/versionOverview.xlsx
+++ b/versionOverview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\mainnas\webVirtualHost\extranet\dev\GitHub\accounting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F279FA-6739-4038-A5CD-755B5F04ADF3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33566587-E09D-4CBB-B6F8-6320404E21F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10400" yWindow="3580" windowWidth="28800" windowHeight="15460" xr2:uid="{4C7BC04F-AF9E-4AF1-A85F-469E0888D37E}"/>
+    <workbookView xWindow="4940" yWindow="4940" windowWidth="28800" windowHeight="15460" xr2:uid="{4C7BC04F-AF9E-4AF1-A85F-469E0888D37E}"/>
   </bookViews>
   <sheets>
     <sheet name="Version overview" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="37">
   <si>
     <t>Applikation</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>v1.6.0</t>
+  </si>
+  <si>
+    <t>v2.31.1-beta</t>
   </si>
 </sst>
 </file>
@@ -675,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956BD7F1-73B9-4FB3-85F5-D7C19A133EFA}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -762,8 +765,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
-        <v>33</v>
+      <c r="A6" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>23</v>
@@ -775,20 +778,20 @@
         <v>27</v>
       </c>
       <c r="E6" s="7"/>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="18" t="s">
         <v>34</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="18" t="s">
         <v>35</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="9">
-        <v>43627</v>
+        <v>43638</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="18" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -801,21 +804,21 @@
         <v>27</v>
       </c>
       <c r="E7" s="7"/>
-      <c r="F7" s="18" t="s">
-        <v>25</v>
+      <c r="F7" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="13" t="s">
-        <v>28</v>
+      <c r="H7" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="9">
-        <v>43613</v>
+        <v>43627</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>23</v>
@@ -836,12 +839,12 @@
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="9">
-        <v>43606</v>
+        <v>43613</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>23</v>
@@ -862,12 +865,12 @@
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="9">
-        <v>43593</v>
+        <v>43606</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>23</v>
@@ -888,12 +891,12 @@
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="9">
-        <v>43583</v>
+        <v>43593</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="18" t="s">
-        <v>26</v>
+      <c r="A11" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>23</v>
@@ -905,20 +908,20 @@
         <v>27</v>
       </c>
       <c r="E11" s="7"/>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="13" t="s">
         <v>28</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="9">
-        <v>43565</v>
+        <v>43583</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -927,23 +930,25 @@
       <c r="C12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="18"/>
+      <c r="F12" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="13" t="s">
-        <v>25</v>
+      <c r="H12" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="9">
-        <v>43553</v>
+        <v>43565</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>23</v>
@@ -951,21 +956,23 @@
       <c r="C13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="13"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="7"/>
       <c r="H13" s="13" t="s">
         <v>25</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="9">
-        <v>43545</v>
+        <v>43553</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>23</v>
@@ -982,12 +989,12 @@
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="9">
-        <v>43522</v>
+        <v>43545</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>23</v>
@@ -1004,12 +1011,12 @@
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="9">
-        <v>43521</v>
+        <v>43522</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>23</v>
@@ -1021,7 +1028,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="13"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="13" t="s">
         <v>25</v>
       </c>
       <c r="I16" s="7"/>
@@ -1031,7 +1038,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>23</v>
@@ -1043,15 +1050,17 @@
       <c r="E17" s="7"/>
       <c r="F17" s="13"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="13"/>
+      <c r="H17" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I17" s="7"/>
       <c r="J17" s="9">
-        <v>43489</v>
+        <v>43521</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>23</v>
@@ -1066,12 +1075,12 @@
       <c r="H18" s="13"/>
       <c r="I18" s="7"/>
       <c r="J18" s="9">
-        <v>43482</v>
+        <v>43489</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>23</v>
@@ -1086,12 +1095,12 @@
       <c r="H19" s="13"/>
       <c r="I19" s="7"/>
       <c r="J19" s="9">
-        <v>43470</v>
+        <v>43482</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>23</v>
@@ -1106,12 +1115,12 @@
       <c r="H20" s="13"/>
       <c r="I20" s="7"/>
       <c r="J20" s="9">
-        <v>43469</v>
+        <v>43470</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>23</v>
@@ -1126,12 +1135,12 @@
       <c r="H21" s="13"/>
       <c r="I21" s="7"/>
       <c r="J21" s="9">
-        <v>43422</v>
+        <v>43469</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>23</v>
@@ -1146,12 +1155,12 @@
       <c r="H22" s="13"/>
       <c r="I22" s="7"/>
       <c r="J22" s="9">
-        <v>43411</v>
+        <v>43422</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>23</v>
@@ -1171,7 +1180,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>23</v>
@@ -1186,12 +1195,12 @@
       <c r="H24" s="13"/>
       <c r="I24" s="7"/>
       <c r="J24" s="9">
-        <v>43406</v>
+        <v>43411</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>23</v>
@@ -1206,40 +1215,48 @@
       <c r="H25" s="13"/>
       <c r="I25" s="7"/>
       <c r="J25" s="9">
+        <v>43406</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="9">
         <v>43404</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="5" t="s">
+    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="10">
+      <c r="B27" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="10">
         <v>43401</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="15"/>
@@ -1264,6 +1281,18 @@
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
       <c r="J29" s="15"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/versionOverview.xlsx
+++ b/versionOverview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\mainnas\webVirtualHost\extranet\dev\GitHub\accounting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33566587-E09D-4CBB-B6F8-6320404E21F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7B9C30-02B1-4C15-9F73-DA735889B31F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="4940" windowWidth="28800" windowHeight="15460" xr2:uid="{4C7BC04F-AF9E-4AF1-A85F-469E0888D37E}"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="28800" windowHeight="15460" xr2:uid="{4C7BC04F-AF9E-4AF1-A85F-469E0888D37E}"/>
   </bookViews>
   <sheets>
     <sheet name="Version overview" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="38">
   <si>
     <t>Applikation</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>v2.31.1-beta</t>
+  </si>
+  <si>
+    <t>v2.34.0-beta</t>
   </si>
 </sst>
 </file>
@@ -678,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956BD7F1-73B9-4FB3-85F5-D7C19A133EFA}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -766,7 +769,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>23</v>
@@ -787,12 +790,12 @@
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="9">
-        <v>43638</v>
+        <v>43660</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="18" t="s">
-        <v>33</v>
+      <c r="A7" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>23</v>
@@ -804,20 +807,20 @@
         <v>27</v>
       </c>
       <c r="E7" s="7"/>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="18" t="s">
         <v>34</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="18" t="s">
         <v>35</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="9">
-        <v>43627</v>
+        <v>43638</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="18" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -830,21 +833,21 @@
         <v>27</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="18" t="s">
-        <v>25</v>
+      <c r="F8" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="13" t="s">
-        <v>28</v>
+      <c r="H8" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="9">
-        <v>43613</v>
+        <v>43627</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>23</v>
@@ -865,12 +868,12 @@
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="9">
-        <v>43606</v>
+        <v>43613</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>23</v>
@@ -891,12 +894,12 @@
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="9">
-        <v>43593</v>
+        <v>43606</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>23</v>
@@ -917,12 +920,12 @@
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="9">
-        <v>43583</v>
+        <v>43593</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
-        <v>26</v>
+      <c r="A12" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>23</v>
@@ -934,20 +937,20 @@
         <v>27</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="13" t="s">
         <v>28</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="9">
-        <v>43565</v>
+        <v>43583</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -956,23 +959,25 @@
       <c r="C13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="18"/>
+      <c r="F13" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="13" t="s">
-        <v>25</v>
+      <c r="H13" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="9">
-        <v>43553</v>
+        <v>43565</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>23</v>
@@ -980,21 +985,23 @@
       <c r="C14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="13"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="7"/>
       <c r="H14" s="13" t="s">
         <v>25</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="9">
-        <v>43545</v>
+        <v>43553</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>23</v>
@@ -1011,12 +1018,12 @@
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="9">
-        <v>43522</v>
+        <v>43545</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>23</v>
@@ -1033,12 +1040,12 @@
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="9">
-        <v>43521</v>
+        <v>43522</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>23</v>
@@ -1050,7 +1057,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="13"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="13" t="s">
         <v>25</v>
       </c>
       <c r="I17" s="7"/>
@@ -1060,7 +1067,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>23</v>
@@ -1072,15 +1079,17 @@
       <c r="E18" s="7"/>
       <c r="F18" s="13"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="13"/>
+      <c r="H18" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I18" s="7"/>
       <c r="J18" s="9">
-        <v>43489</v>
+        <v>43521</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>23</v>
@@ -1095,12 +1104,12 @@
       <c r="H19" s="13"/>
       <c r="I19" s="7"/>
       <c r="J19" s="9">
-        <v>43482</v>
+        <v>43489</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>23</v>
@@ -1115,12 +1124,12 @@
       <c r="H20" s="13"/>
       <c r="I20" s="7"/>
       <c r="J20" s="9">
-        <v>43470</v>
+        <v>43482</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>23</v>
@@ -1135,12 +1144,12 @@
       <c r="H21" s="13"/>
       <c r="I21" s="7"/>
       <c r="J21" s="9">
-        <v>43469</v>
+        <v>43470</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>23</v>
@@ -1155,12 +1164,12 @@
       <c r="H22" s="13"/>
       <c r="I22" s="7"/>
       <c r="J22" s="9">
-        <v>43422</v>
+        <v>43469</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>23</v>
@@ -1175,12 +1184,12 @@
       <c r="H23" s="13"/>
       <c r="I23" s="7"/>
       <c r="J23" s="9">
-        <v>43411</v>
+        <v>43422</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>23</v>
@@ -1200,7 +1209,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>23</v>
@@ -1215,12 +1224,12 @@
       <c r="H25" s="13"/>
       <c r="I25" s="7"/>
       <c r="J25" s="9">
-        <v>43406</v>
+        <v>43411</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>23</v>
@@ -1235,40 +1244,48 @@
       <c r="H26" s="13"/>
       <c r="I26" s="7"/>
       <c r="J26" s="9">
+        <v>43406</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="9">
         <v>43404</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="5" t="s">
+    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="10">
+      <c r="B28" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="10">
         <v>43401</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="15"/>
@@ -1293,6 +1310,18 @@
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
       <c r="J30" s="15"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/versionOverview.xlsx
+++ b/versionOverview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\mainnas\webVirtualHost\extranet\dev\GitHub\accounting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7B9C30-02B1-4C15-9F73-DA735889B31F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C139E9DF-D4B7-4C2B-BE28-3B2330BC4E1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3040" windowWidth="28800" windowHeight="15460" xr2:uid="{4C7BC04F-AF9E-4AF1-A85F-469E0888D37E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{4C7BC04F-AF9E-4AF1-A85F-469E0888D37E}"/>
   </bookViews>
   <sheets>
     <sheet name="Version overview" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="39">
   <si>
     <t>Applikation</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>v2.34.0-beta</t>
+  </si>
+  <si>
+    <t>v1.9.0</t>
   </si>
 </sst>
 </file>
@@ -681,7 +684,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956BD7F1-73B9-4FB3-85F5-D7C19A133EFA}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -768,7 +771,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="18" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -785,17 +788,17 @@
         <v>34</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="18" t="s">
-        <v>35</v>
+      <c r="H6" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="9">
-        <v>43660</v>
+        <v>43673</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>23</v>
@@ -816,12 +819,12 @@
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="9">
-        <v>43638</v>
+        <v>43660</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
-        <v>33</v>
+      <c r="A8" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>23</v>
@@ -833,20 +836,20 @@
         <v>27</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="18" t="s">
         <v>34</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="18" t="s">
         <v>35</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="9">
-        <v>43627</v>
+        <v>43638</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="18" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -859,21 +862,21 @@
         <v>27</v>
       </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="18" t="s">
-        <v>25</v>
+      <c r="F9" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="13" t="s">
-        <v>28</v>
+      <c r="H9" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="9">
-        <v>43613</v>
+        <v>43627</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>23</v>
@@ -894,12 +897,12 @@
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="9">
-        <v>43606</v>
+        <v>43613</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>23</v>
@@ -920,12 +923,12 @@
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="9">
-        <v>43593</v>
+        <v>43606</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>23</v>
@@ -946,12 +949,12 @@
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="9">
-        <v>43583</v>
+        <v>43593</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="18" t="s">
-        <v>26</v>
+      <c r="A13" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>23</v>
@@ -963,20 +966,20 @@
         <v>27</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="13" t="s">
         <v>28</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="9">
-        <v>43565</v>
+        <v>43583</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -985,23 +988,25 @@
       <c r="C14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="18"/>
+      <c r="F14" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="13" t="s">
-        <v>25</v>
+      <c r="H14" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="9">
-        <v>43553</v>
+        <v>43565</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>23</v>
@@ -1009,21 +1014,23 @@
       <c r="C15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="13"/>
+      <c r="F15" s="18"/>
       <c r="G15" s="7"/>
       <c r="H15" s="13" t="s">
         <v>25</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="9">
-        <v>43545</v>
+        <v>43553</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>23</v>
@@ -1040,12 +1047,12 @@
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="9">
-        <v>43522</v>
+        <v>43545</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>23</v>
@@ -1062,12 +1069,12 @@
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="9">
-        <v>43521</v>
+        <v>43522</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>23</v>
@@ -1079,7 +1086,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="13"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="13" t="s">
         <v>25</v>
       </c>
       <c r="I18" s="7"/>
@@ -1089,7 +1096,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>23</v>
@@ -1101,15 +1108,17 @@
       <c r="E19" s="7"/>
       <c r="F19" s="13"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="13"/>
+      <c r="H19" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I19" s="7"/>
       <c r="J19" s="9">
-        <v>43489</v>
+        <v>43521</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>23</v>
@@ -1124,12 +1133,12 @@
       <c r="H20" s="13"/>
       <c r="I20" s="7"/>
       <c r="J20" s="9">
-        <v>43482</v>
+        <v>43489</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>23</v>
@@ -1144,12 +1153,12 @@
       <c r="H21" s="13"/>
       <c r="I21" s="7"/>
       <c r="J21" s="9">
-        <v>43470</v>
+        <v>43482</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>23</v>
@@ -1164,12 +1173,12 @@
       <c r="H22" s="13"/>
       <c r="I22" s="7"/>
       <c r="J22" s="9">
-        <v>43469</v>
+        <v>43470</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>23</v>
@@ -1184,12 +1193,12 @@
       <c r="H23" s="13"/>
       <c r="I23" s="7"/>
       <c r="J23" s="9">
-        <v>43422</v>
+        <v>43469</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>23</v>
@@ -1204,12 +1213,12 @@
       <c r="H24" s="13"/>
       <c r="I24" s="7"/>
       <c r="J24" s="9">
-        <v>43411</v>
+        <v>43422</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>23</v>
@@ -1229,7 +1238,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>23</v>
@@ -1244,12 +1253,12 @@
       <c r="H26" s="13"/>
       <c r="I26" s="7"/>
       <c r="J26" s="9">
-        <v>43406</v>
+        <v>43411</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>23</v>
@@ -1264,40 +1273,48 @@
       <c r="H27" s="13"/>
       <c r="I27" s="7"/>
       <c r="J27" s="9">
+        <v>43406</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="9">
         <v>43404</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="5" t="s">
+    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="10">
+      <c r="B29" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="10">
         <v>43401</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="15"/>
@@ -1322,6 +1339,18 @@
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
       <c r="J31" s="15"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/versionOverview.xlsx
+++ b/versionOverview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\mainnas\webVirtualHost\extranet\dev\GitHub\accounting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C139E9DF-D4B7-4C2B-BE28-3B2330BC4E1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05B8571-17C3-444F-B429-4E04B9AF450C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{4C7BC04F-AF9E-4AF1-A85F-469E0888D37E}"/>
+    <workbookView xWindow="39010" yWindow="2160" windowWidth="32650" windowHeight="15460" xr2:uid="{4C7BC04F-AF9E-4AF1-A85F-469E0888D37E}"/>
   </bookViews>
   <sheets>
     <sheet name="Version overview" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="40">
   <si>
     <t>Applikation</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>v1.9.0</t>
+  </si>
+  <si>
+    <t>v1.9.1</t>
   </si>
 </sst>
 </file>
@@ -684,7 +687,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956BD7F1-73B9-4FB3-85F5-D7C19A133EFA}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -789,15 +792,15 @@
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="9">
-        <v>43673</v>
+        <v>43674</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="18" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -814,17 +817,17 @@
         <v>34</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="18" t="s">
-        <v>35</v>
+      <c r="H7" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="9">
-        <v>43660</v>
+        <v>43673</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>23</v>
@@ -845,12 +848,12 @@
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="9">
-        <v>43638</v>
+        <v>43660</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
-        <v>33</v>
+      <c r="A9" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>23</v>
@@ -862,20 +865,20 @@
         <v>27</v>
       </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="18" t="s">
         <v>34</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="18" t="s">
         <v>35</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="9">
-        <v>43627</v>
+        <v>43638</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="18" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -888,21 +891,21 @@
         <v>27</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="18" t="s">
-        <v>25</v>
+      <c r="F10" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="H10" s="13" t="s">
-        <v>28</v>
+      <c r="H10" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="9">
-        <v>43613</v>
+        <v>43627</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>23</v>
@@ -923,12 +926,12 @@
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="9">
-        <v>43606</v>
+        <v>43613</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>23</v>
@@ -949,12 +952,12 @@
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="9">
-        <v>43593</v>
+        <v>43606</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>23</v>
@@ -975,12 +978,12 @@
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="9">
-        <v>43583</v>
+        <v>43593</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="18" t="s">
-        <v>26</v>
+      <c r="A14" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>23</v>
@@ -992,20 +995,20 @@
         <v>27</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="13" t="s">
         <v>28</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="9">
-        <v>43565</v>
+        <v>43583</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1014,23 +1017,25 @@
       <c r="C15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="18"/>
+      <c r="F15" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="13" t="s">
-        <v>25</v>
+      <c r="H15" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="9">
-        <v>43553</v>
+        <v>43565</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>23</v>
@@ -1038,21 +1043,23 @@
       <c r="C16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="E16" s="7"/>
-      <c r="F16" s="13"/>
+      <c r="F16" s="18"/>
       <c r="G16" s="7"/>
       <c r="H16" s="13" t="s">
         <v>25</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="9">
-        <v>43545</v>
+        <v>43553</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>23</v>
@@ -1069,12 +1076,12 @@
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="9">
-        <v>43522</v>
+        <v>43545</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>23</v>
@@ -1091,12 +1098,12 @@
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="9">
-        <v>43521</v>
+        <v>43522</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>23</v>
@@ -1108,7 +1115,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="13"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="13" t="s">
         <v>25</v>
       </c>
       <c r="I19" s="7"/>
@@ -1118,7 +1125,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>23</v>
@@ -1130,15 +1137,17 @@
       <c r="E20" s="7"/>
       <c r="F20" s="13"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="13"/>
+      <c r="H20" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I20" s="7"/>
       <c r="J20" s="9">
-        <v>43489</v>
+        <v>43521</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>23</v>
@@ -1153,12 +1162,12 @@
       <c r="H21" s="13"/>
       <c r="I21" s="7"/>
       <c r="J21" s="9">
-        <v>43482</v>
+        <v>43489</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>23</v>
@@ -1173,12 +1182,12 @@
       <c r="H22" s="13"/>
       <c r="I22" s="7"/>
       <c r="J22" s="9">
-        <v>43470</v>
+        <v>43482</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>23</v>
@@ -1193,12 +1202,12 @@
       <c r="H23" s="13"/>
       <c r="I23" s="7"/>
       <c r="J23" s="9">
-        <v>43469</v>
+        <v>43470</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>23</v>
@@ -1213,12 +1222,12 @@
       <c r="H24" s="13"/>
       <c r="I24" s="7"/>
       <c r="J24" s="9">
-        <v>43422</v>
+        <v>43469</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>23</v>
@@ -1233,12 +1242,12 @@
       <c r="H25" s="13"/>
       <c r="I25" s="7"/>
       <c r="J25" s="9">
-        <v>43411</v>
+        <v>43422</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>23</v>
@@ -1258,7 +1267,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>23</v>
@@ -1273,12 +1282,12 @@
       <c r="H27" s="13"/>
       <c r="I27" s="7"/>
       <c r="J27" s="9">
-        <v>43406</v>
+        <v>43411</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>23</v>
@@ -1293,40 +1302,48 @@
       <c r="H28" s="13"/>
       <c r="I28" s="7"/>
       <c r="J28" s="9">
+        <v>43406</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="9">
         <v>43404</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="5" t="s">
+    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="10">
+      <c r="B30" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="10">
         <v>43401</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="15"/>
@@ -1351,6 +1368,18 @@
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
       <c r="J32" s="15"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/versionOverview.xlsx
+++ b/versionOverview.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\mainnas\webVirtualHost\extranet\dev\GitHub\accounting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05B8571-17C3-444F-B429-4E04B9AF450C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A33434-82F8-4B48-9260-16077517C701}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39010" yWindow="2160" windowWidth="32650" windowHeight="15460" xr2:uid="{4C7BC04F-AF9E-4AF1-A85F-469E0888D37E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="41">
   <si>
     <t>Applikation</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>v1.9.1</t>
+  </si>
+  <si>
+    <t>v1.9.2</t>
   </si>
 </sst>
 </file>
@@ -334,15 +337,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -350,15 +350,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -367,6 +364,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -687,7 +691,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956BD7F1-73B9-4FB3-85F5-D7C19A133EFA}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -705,12 +709,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -718,24 +722,24 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
         <v>5</v>
@@ -745,31 +749,31 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="16"/>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="17" t="s">
+      <c r="I5" s="9"/>
+      <c r="J5" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -777,609 +781,635 @@
       <c r="A6" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="B6" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="9">
-        <v>43674</v>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="6">
+        <v>43679</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="B7" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="9">
-        <v>43673</v>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="6">
+        <v>43674</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="B8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="9">
-        <v>43660</v>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="6">
+        <v>43673</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="A9" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="9">
+      <c r="I9" s="4"/>
+      <c r="J9" s="6">
+        <v>43660</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="6">
         <v>43638</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="18" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="B11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="3" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="3" t="s">
+      <c r="G11" s="20"/>
+      <c r="H11" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="9">
+      <c r="I11" s="4"/>
+      <c r="J11" s="6">
         <v>43627</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="B12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="9">
-        <v>43613</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="13" t="s">
+      <c r="G12" s="20"/>
+      <c r="H12" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="9">
-        <v>43606</v>
+      <c r="I12" s="4"/>
+      <c r="J12" s="6">
+        <v>43613</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="A13" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="13" t="s">
+      <c r="G13" s="20"/>
+      <c r="H13" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="9">
-        <v>43593</v>
+      <c r="I13" s="4"/>
+      <c r="J13" s="6">
+        <v>43606</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="A14" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="13" t="s">
+      <c r="G14" s="20"/>
+      <c r="H14" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="9">
+      <c r="I14" s="4"/>
+      <c r="J14" s="6">
+        <v>43593</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="6">
         <v>43583</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="18" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="9">
-        <v>43565</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="13" t="s">
+      <c r="E16" s="20"/>
+      <c r="F16" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="9">
+      <c r="G16" s="20"/>
+      <c r="H16" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="6">
+        <v>43565</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="6">
         <v>43553</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="13" t="s">
+      <c r="B18" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="9">
+      <c r="I18" s="4"/>
+      <c r="J18" s="6">
         <v>43545</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="13" t="s">
+      <c r="B19" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="9">
+      <c r="I19" s="4"/>
+      <c r="J19" s="6">
         <v>43522</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="13" t="s">
+      <c r="B20" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="9">
+      <c r="I20" s="4"/>
+      <c r="J20" s="6">
         <v>43521</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="3" t="s">
+      <c r="B21" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="9">
+      <c r="I21" s="4"/>
+      <c r="J21" s="6">
         <v>43521</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="9">
+      <c r="B22" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="6">
         <v>43489</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="9">
+      <c r="B23" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="6">
         <v>43482</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="9">
+      <c r="B24" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="6">
         <v>43470</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="9">
+      <c r="B25" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="6">
         <v>43469</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="9">
+      <c r="B26" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="6">
         <v>43422</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="9">
+      <c r="B27" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="6">
         <v>43411</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="9">
+      <c r="B28" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="6">
         <v>43411</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="9">
+      <c r="B29" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="6">
         <v>43406</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="9">
+      <c r="B30" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="6">
         <v>43404</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="5" t="s">
+    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="10">
+      <c r="B31" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="7">
         <v>43401</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-    </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/versionOverview.xlsx
+++ b/versionOverview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\mainnas\webVirtualHost\extranet\dev\GitHub\accounting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A33434-82F8-4B48-9260-16077517C701}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635A9F13-5712-4C2D-AC43-E335CA17293D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39010" yWindow="2160" windowWidth="32650" windowHeight="15460" xr2:uid="{4C7BC04F-AF9E-4AF1-A85F-469E0888D37E}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="28800" windowHeight="15460" xr2:uid="{4C7BC04F-AF9E-4AF1-A85F-469E0888D37E}"/>
   </bookViews>
   <sheets>
     <sheet name="Version overview" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="42">
   <si>
     <t>Applikation</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>v1.9.2</t>
+  </si>
+  <si>
+    <t>v2.37.0-beta</t>
   </si>
 </sst>
 </file>
@@ -357,6 +360,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -364,13 +374,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -691,7 +694,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956BD7F1-73B9-4FB3-85F5-D7C19A133EFA}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -709,12 +712,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -734,12 +737,12 @@
       <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
         <v>5</v>
@@ -779,395 +782,399 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="18" t="s">
+      <c r="E6" s="17"/>
+      <c r="F6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21" t="s">
+      <c r="G6" s="17"/>
+      <c r="H6" s="15" t="s">
         <v>40</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="6">
-        <v>43679</v>
+        <v>43680</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="19" t="s">
+      <c r="B7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="18" t="s">
+      <c r="E7" s="17"/>
+      <c r="F7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21" t="s">
-        <v>39</v>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="6">
-        <v>43674</v>
+        <v>43679</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="19" t="s">
+      <c r="B8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="18" t="s">
+      <c r="E8" s="17"/>
+      <c r="F8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21" t="s">
-        <v>38</v>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="6">
-        <v>43673</v>
+        <v>43674</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="19" t="s">
+      <c r="B9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="18" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="20"/>
+      <c r="G9" s="17"/>
       <c r="H9" s="18" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="6">
-        <v>43660</v>
+        <v>43673</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="19" t="s">
+      <c r="A10" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="18" t="s">
+      <c r="E10" s="17"/>
+      <c r="F10" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="18" t="s">
+      <c r="G10" s="17"/>
+      <c r="H10" s="15" t="s">
         <v>35</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="6">
-        <v>43638</v>
+        <v>43660</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21" t="s">
+      <c r="E11" s="17"/>
+      <c r="F11" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21" t="s">
+      <c r="G11" s="17"/>
+      <c r="H11" s="15" t="s">
         <v>35</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="6">
-        <v>43627</v>
+        <v>43638</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="19" t="s">
+      <c r="B12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="20"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="22" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18" t="s">
+        <v>35</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="6">
-        <v>43613</v>
+        <v>43627</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="19" t="s">
+      <c r="A13" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="18" t="s">
+      <c r="E13" s="17"/>
+      <c r="F13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="22" t="s">
+      <c r="G13" s="17"/>
+      <c r="H13" s="19" t="s">
         <v>28</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="6">
-        <v>43606</v>
+        <v>43613</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="19" t="s">
+      <c r="A14" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="18" t="s">
+      <c r="E14" s="17"/>
+      <c r="F14" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="22" t="s">
+      <c r="G14" s="17"/>
+      <c r="H14" s="19" t="s">
         <v>28</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="6">
-        <v>43593</v>
+        <v>43606</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="19" t="s">
+      <c r="A15" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="18" t="s">
+      <c r="E15" s="17"/>
+      <c r="F15" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="22" t="s">
+      <c r="G15" s="17"/>
+      <c r="H15" s="19" t="s">
         <v>28</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="6">
-        <v>43583</v>
+        <v>43593</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21" t="s">
+      <c r="E16" s="17"/>
+      <c r="F16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21" t="s">
+      <c r="G16" s="17"/>
+      <c r="H16" s="19" t="s">
         <v>28</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="6">
-        <v>43565</v>
+        <v>43583</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="23" t="s">
+      <c r="B17" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="22" t="s">
+      <c r="E17" s="17"/>
+      <c r="F17" s="18" t="s">
         <v>25</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="6">
-        <v>43553</v>
+        <v>43565</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="22" t="s">
+      <c r="A18" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="19" t="s">
         <v>25</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="6">
-        <v>43545</v>
+        <v>43553</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="22" t="s">
+      <c r="A19" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="19" t="s">
         <v>25</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="6">
-        <v>43522</v>
+        <v>43545</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="22" t="s">
+      <c r="A20" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="19" t="s">
         <v>25</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="6">
-        <v>43521</v>
+        <v>43522</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21" t="s">
+      <c r="A21" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="19" t="s">
         <v>25</v>
       </c>
       <c r="I21" s="4"/>
@@ -1176,216 +1183,226 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="22"/>
+      <c r="A22" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="I22" s="4"/>
       <c r="J22" s="6">
-        <v>43489</v>
+        <v>43521</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="22"/>
+      <c r="A23" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="19"/>
       <c r="I23" s="4"/>
       <c r="J23" s="6">
-        <v>43482</v>
+        <v>43489</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="22"/>
+      <c r="A24" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="19"/>
       <c r="I24" s="4"/>
       <c r="J24" s="6">
-        <v>43470</v>
+        <v>43482</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="22"/>
+      <c r="A25" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="19"/>
       <c r="I25" s="4"/>
       <c r="J25" s="6">
-        <v>43469</v>
+        <v>43470</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="22"/>
+      <c r="A26" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="19"/>
       <c r="I26" s="4"/>
       <c r="J26" s="6">
-        <v>43422</v>
+        <v>43469</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="22"/>
+      <c r="A27" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="19"/>
       <c r="I27" s="4"/>
       <c r="J27" s="6">
-        <v>43411</v>
+        <v>43422</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="22"/>
+      <c r="A28" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="19"/>
       <c r="I28" s="4"/>
       <c r="J28" s="6">
         <v>43411</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="22"/>
+      <c r="A29" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="19"/>
       <c r="I29" s="4"/>
       <c r="J29" s="6">
-        <v>43406</v>
+        <v>43411</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="22"/>
+      <c r="A30" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="19"/>
       <c r="I30" s="4"/>
       <c r="J30" s="6">
+        <v>43406</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="6">
         <v>43404</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="24" t="s">
+    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="7">
+      <c r="B32" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="7">
         <v>43401</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
@@ -1410,6 +1427,18 @@
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/versionOverview.xlsx
+++ b/versionOverview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\mainnas\webVirtualHost\extranet\dev\GitHub\accounting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\albrecht-net.ch\webVirtualHost\extranet\dev\GitHub\accounting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635A9F13-5712-4C2D-AC43-E335CA17293D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028C8291-D67F-48E1-B8B0-00602AA5A358}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="28800" windowHeight="15460" xr2:uid="{4C7BC04F-AF9E-4AF1-A85F-469E0888D37E}"/>
+    <workbookView xWindow="8210" yWindow="7310" windowWidth="28800" windowHeight="15460" xr2:uid="{4C7BC04F-AF9E-4AF1-A85F-469E0888D37E}"/>
   </bookViews>
   <sheets>
     <sheet name="Version overview" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="44">
   <si>
     <t>Applikation</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>v2.37.0-beta</t>
+  </si>
+  <si>
+    <t>Datatables fixed columns</t>
+  </si>
+  <si>
+    <t>v2.39.1-beta</t>
   </si>
 </sst>
 </file>
@@ -340,7 +346,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -367,6 +373,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -374,10 +384,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift 1" xfId="1" builtinId="16"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -398,7 +410,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -694,37 +706,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956BD7F1-73B9-4FB3-85F5-D7C19A133EFA}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="12.453125" customWidth="1"/>
-    <col min="5" max="5" width="7.08984375" customWidth="1"/>
-    <col min="6" max="6" width="23.08984375" customWidth="1"/>
-    <col min="7" max="7" width="7.08984375" customWidth="1"/>
-    <col min="8" max="8" width="23.08984375" customWidth="1"/>
-    <col min="9" max="9" width="7.08984375" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="7.08984375" customWidth="1"/>
+    <col min="7" max="7" width="23.08984375" customWidth="1"/>
+    <col min="8" max="8" width="7.08984375" customWidth="1"/>
+    <col min="9" max="9" width="23.08984375" customWidth="1"/>
+    <col min="10" max="10" width="7.08984375" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -735,26 +748,28 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
-    </row>
-    <row r="4" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2"/>
+      <c r="I4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J4" s="2"/>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
@@ -767,22 +782,25 @@
       <c r="D5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="9"/>
+      <c r="K5" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>23</v>
@@ -793,22 +811,25 @@
       <c r="D6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="15" t="s">
+      <c r="E6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="17"/>
+      <c r="I6" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="6">
-        <v>43680</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
-        <v>37</v>
+      <c r="J6" s="4"/>
+      <c r="K6" s="6">
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>23</v>
@@ -819,20 +840,21 @@
       <c r="D7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="15" t="s">
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="17"/>
+      <c r="I7" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="6">
-        <v>43679</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J7" s="4"/>
+      <c r="K7" s="6">
+        <v>43680</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>37</v>
       </c>
@@ -845,20 +867,21 @@
       <c r="D8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="15" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="6">
-        <v>43674</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H8" s="17"/>
+      <c r="I8" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="6">
+        <v>43679</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>37</v>
       </c>
@@ -871,21 +894,22 @@
       <c r="D9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="15" t="s">
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="6">
-        <v>43673</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="18" t="s">
+      <c r="H9" s="17"/>
+      <c r="I9" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="6">
+        <v>43674</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -897,22 +921,23 @@
       <c r="D10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="15" t="s">
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="6">
-        <v>43660</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H10" s="17"/>
+      <c r="I10" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="6">
+        <v>43673</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>23</v>
@@ -923,22 +948,23 @@
       <c r="D11" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="15" t="s">
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="17"/>
+      <c r="I11" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="6">
-        <v>43638</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
-        <v>33</v>
+      <c r="J11" s="4"/>
+      <c r="K11" s="6">
+        <v>43660</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>23</v>
@@ -949,21 +975,22 @@
       <c r="D12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18" t="s">
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="17"/>
+      <c r="I12" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="6">
-        <v>43627</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="18" t="s">
+      <c r="J12" s="4"/>
+      <c r="K12" s="6">
+        <v>43638</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="16" t="s">
@@ -975,22 +1002,23 @@
       <c r="D13" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="6">
-        <v>43613</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="6">
+        <v>43627</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>23</v>
@@ -1001,22 +1029,23 @@
       <c r="D14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="15" t="s">
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="17"/>
+      <c r="I14" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="6">
-        <v>43606</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J14" s="4"/>
+      <c r="K14" s="6">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>23</v>
@@ -1027,22 +1056,23 @@
       <c r="D15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="15" t="s">
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="17"/>
+      <c r="I15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="6">
-        <v>43593</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J15" s="4"/>
+      <c r="K15" s="6">
+        <v>43606</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>23</v>
@@ -1053,22 +1083,23 @@
       <c r="D16" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="15" t="s">
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="17"/>
+      <c r="I16" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="6">
-        <v>43583</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="15" t="s">
-        <v>26</v>
+      <c r="J16" s="4"/>
+      <c r="K16" s="6">
+        <v>43593</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>23</v>
@@ -1079,344 +1110,375 @@
       <c r="D17" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18" t="s">
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="17"/>
+      <c r="I17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="6">
+      <c r="J17" s="4"/>
+      <c r="K17" s="6">
+        <v>43583</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="17"/>
+      <c r="I18" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="6">
         <v>43565</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="18" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="20" t="s">
+      <c r="B19" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="19" t="s">
+      <c r="E19" s="28"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="6">
+      <c r="J19" s="4"/>
+      <c r="K19" s="6">
         <v>43553</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="18" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="19" t="s">
+      <c r="B20" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="6">
+      <c r="J20" s="4"/>
+      <c r="K20" s="6">
         <v>43545</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="18" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="19" t="s">
+      <c r="B21" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="6">
+      <c r="J21" s="4"/>
+      <c r="K21" s="6">
         <v>43522</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="18" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="19" t="s">
+      <c r="B22" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="6">
+      <c r="J22" s="4"/>
+      <c r="K22" s="6">
         <v>43521</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="18" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18" t="s">
+      <c r="B23" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="6">
+      <c r="J23" s="4"/>
+      <c r="K23" s="6">
         <v>43521</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="18" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="6">
+      <c r="B24" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="6">
         <v>43489</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="18" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="6">
+      <c r="B25" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="6">
         <v>43482</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="18" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="6">
+      <c r="B26" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="6">
         <v>43470</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="18" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="6">
+      <c r="B27" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="6">
         <v>43469</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="18" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="6">
+      <c r="B28" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="6">
         <v>43422</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="18" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="6">
+      <c r="B29" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="6">
         <v>43411</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="18" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="6">
+      <c r="B30" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="6">
         <v>43411</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="18" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="6">
+      <c r="B31" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="6">
         <v>43406</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="18" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="6">
+      <c r="B32" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="6">
         <v>43404</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="21" t="s">
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="7">
+      <c r="B33" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="7">
         <v>43401</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -1427,8 +1489,9 @@
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K34" s="11"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -1439,6 +1502,20 @@
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/versionOverview.xlsx
+++ b/versionOverview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\albrecht-net.ch\webVirtualHost\extranet\dev\GitHub\accounting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028C8291-D67F-48E1-B8B0-00602AA5A358}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC9354F7-1E05-46A9-A59A-831AC0FD2A8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8210" yWindow="7310" windowWidth="28800" windowHeight="15460" xr2:uid="{4C7BC04F-AF9E-4AF1-A85F-469E0888D37E}"/>
+    <workbookView xWindow="2560" yWindow="4990" windowWidth="28800" windowHeight="15460" xr2:uid="{4C7BC04F-AF9E-4AF1-A85F-469E0888D37E}"/>
   </bookViews>
   <sheets>
     <sheet name="Version overview" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="46">
   <si>
     <t>Applikation</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>v2.39.1-beta</t>
+  </si>
+  <si>
+    <t>v1.10.0</t>
+  </si>
+  <si>
+    <t>v1.11.0</t>
   </si>
 </sst>
 </file>
@@ -377,6 +383,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -384,8 +392,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -706,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956BD7F1-73B9-4FB3-85F5-D7C19A133EFA}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -724,12 +730,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -751,12 +757,12 @@
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="22"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
@@ -782,7 +788,7 @@
       <c r="D5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F5" s="9"/>
@@ -799,7 +805,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -811,7 +817,7 @@
       <c r="D6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="25" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="17"/>
@@ -819,17 +825,17 @@
         <v>34</v>
       </c>
       <c r="H6" s="17"/>
-      <c r="I6" s="15" t="s">
-        <v>40</v>
+      <c r="I6" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="6">
-        <v>43982</v>
+        <v>44269</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>23</v>
@@ -840,23 +846,25 @@
       <c r="D7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="E7" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="F7" s="17"/>
       <c r="G7" s="15" t="s">
         <v>34</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="6">
-        <v>43680</v>
+        <v>43982</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>23</v>
@@ -867,23 +875,23 @@
       <c r="D8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="16"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="17"/>
       <c r="G8" s="15" t="s">
         <v>34</v>
       </c>
       <c r="H8" s="17"/>
       <c r="I8" s="18" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="6">
-        <v>43679</v>
+        <v>43775</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
-        <v>37</v>
+      <c r="A9" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>23</v>
@@ -900,12 +908,12 @@
         <v>34</v>
       </c>
       <c r="H9" s="17"/>
-      <c r="I9" s="18" t="s">
-        <v>39</v>
+      <c r="I9" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="6">
-        <v>43674</v>
+        <v>43680</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -928,15 +936,15 @@
       </c>
       <c r="H10" s="17"/>
       <c r="I10" s="18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="6">
-        <v>43673</v>
+        <v>43679</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="16" t="s">
@@ -954,17 +962,17 @@
         <v>34</v>
       </c>
       <c r="H11" s="17"/>
-      <c r="I11" s="15" t="s">
-        <v>35</v>
+      <c r="I11" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="6">
-        <v>43660</v>
+        <v>43674</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
-        <v>36</v>
+      <c r="A12" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>23</v>
@@ -981,17 +989,17 @@
         <v>34</v>
       </c>
       <c r="H12" s="17"/>
-      <c r="I12" s="15" t="s">
-        <v>35</v>
+      <c r="I12" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="6">
-        <v>43638</v>
+        <v>43673</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
-        <v>33</v>
+      <c r="A13" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>23</v>
@@ -1004,21 +1012,21 @@
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="15" t="s">
         <v>34</v>
       </c>
       <c r="H13" s="17"/>
-      <c r="I13" s="18" t="s">
+      <c r="I13" s="15" t="s">
         <v>35</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="6">
-        <v>43627</v>
+        <v>43660</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>23</v>
@@ -1032,20 +1040,20 @@
       <c r="E14" s="16"/>
       <c r="F14" s="17"/>
       <c r="G14" s="15" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H14" s="17"/>
-      <c r="I14" s="19" t="s">
-        <v>28</v>
+      <c r="I14" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="6">
-        <v>43613</v>
+        <v>43638</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="18" t="s">
-        <v>32</v>
+      <c r="A15" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>23</v>
@@ -1058,21 +1066,21 @@
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="15" t="s">
-        <v>25</v>
+      <c r="G15" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="H15" s="17"/>
-      <c r="I15" s="19" t="s">
-        <v>28</v>
+      <c r="I15" s="18" t="s">
+        <v>35</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="6">
-        <v>43606</v>
+        <v>43627</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>23</v>
@@ -1094,12 +1102,12 @@
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="6">
-        <v>43593</v>
+        <v>43613</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>23</v>
@@ -1121,12 +1129,12 @@
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="6">
-        <v>43583</v>
+        <v>43606</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="15" t="s">
-        <v>26</v>
+      <c r="A18" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>23</v>
@@ -1139,21 +1147,21 @@
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="17"/>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="15" t="s">
         <v>25</v>
       </c>
       <c r="H18" s="17"/>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="19" t="s">
         <v>28</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="6">
-        <v>43565</v>
+        <v>43593</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>23</v>
@@ -1161,24 +1169,26 @@
       <c r="C19" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="28"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="15"/>
+      <c r="G19" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="H19" s="17"/>
       <c r="I19" s="19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="6">
-        <v>43553</v>
+        <v>43583</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="18" t="s">
-        <v>22</v>
+      <c r="A20" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>23</v>
@@ -1186,22 +1196,26 @@
       <c r="C20" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="16"/>
+      <c r="D20" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="E20" s="16"/>
       <c r="F20" s="17"/>
-      <c r="G20" s="19"/>
+      <c r="G20" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="H20" s="17"/>
-      <c r="I20" s="19" t="s">
-        <v>25</v>
+      <c r="I20" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="6">
-        <v>43545</v>
+        <v>43565</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>23</v>
@@ -1209,22 +1223,24 @@
       <c r="C21" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
+      <c r="D21" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="25"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="19"/>
+      <c r="G21" s="15"/>
       <c r="H21" s="17"/>
       <c r="I21" s="19" t="s">
         <v>25</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="6">
-        <v>43522</v>
+        <v>43553</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>23</v>
@@ -1242,12 +1258,12 @@
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="6">
-        <v>43521</v>
+        <v>43545</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>23</v>
@@ -1260,17 +1276,17 @@
       <c r="F23" s="17"/>
       <c r="G23" s="19"/>
       <c r="H23" s="17"/>
-      <c r="I23" s="18" t="s">
+      <c r="I23" s="19" t="s">
         <v>25</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="6">
-        <v>43521</v>
+        <v>43522</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>23</v>
@@ -1283,15 +1299,17 @@
       <c r="F24" s="17"/>
       <c r="G24" s="19"/>
       <c r="H24" s="17"/>
-      <c r="I24" s="19"/>
+      <c r="I24" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="J24" s="4"/>
       <c r="K24" s="6">
-        <v>43489</v>
+        <v>43521</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>23</v>
@@ -1304,15 +1322,17 @@
       <c r="F25" s="17"/>
       <c r="G25" s="19"/>
       <c r="H25" s="17"/>
-      <c r="I25" s="19"/>
+      <c r="I25" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="J25" s="4"/>
       <c r="K25" s="6">
-        <v>43482</v>
+        <v>43521</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>23</v>
@@ -1328,12 +1348,12 @@
       <c r="I26" s="19"/>
       <c r="J26" s="4"/>
       <c r="K26" s="6">
-        <v>43470</v>
+        <v>43489</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>23</v>
@@ -1349,12 +1369,12 @@
       <c r="I27" s="19"/>
       <c r="J27" s="4"/>
       <c r="K27" s="6">
-        <v>43469</v>
+        <v>43482</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>23</v>
@@ -1370,12 +1390,12 @@
       <c r="I28" s="19"/>
       <c r="J28" s="4"/>
       <c r="K28" s="6">
-        <v>43422</v>
+        <v>43470</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B29" s="16" t="s">
         <v>23</v>
@@ -1391,12 +1411,12 @@
       <c r="I29" s="19"/>
       <c r="J29" s="4"/>
       <c r="K29" s="6">
-        <v>43411</v>
+        <v>43469</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>23</v>
@@ -1412,12 +1432,12 @@
       <c r="I30" s="19"/>
       <c r="J30" s="4"/>
       <c r="K30" s="6">
-        <v>43411</v>
+        <v>43422</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>23</v>
@@ -1433,12 +1453,12 @@
       <c r="I31" s="19"/>
       <c r="J31" s="4"/>
       <c r="K31" s="6">
-        <v>43406</v>
+        <v>43411</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B32" s="16" t="s">
         <v>23</v>
@@ -1454,55 +1474,71 @@
       <c r="I32" s="19"/>
       <c r="J32" s="4"/>
       <c r="K32" s="6">
+        <v>43411</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="6">
+        <v>43406</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="6">
         <v>43404</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="21" t="s">
+    <row r="35" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="7">
+      <c r="B35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="7">
         <v>43401</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="11"/>
@@ -1516,6 +1552,32 @@
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
